--- a/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 33,03</t>
+          <t>17,71; 33,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 24,66</t>
+          <t>11,06; 24,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 37,02</t>
+          <t>21,17; 38,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,37; 53,83</t>
+          <t>33,88; 53,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,14; 43,72</t>
+          <t>26,93; 44,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,22; 43,13</t>
+          <t>24,89; 44,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,95; 39,37</t>
+          <t>21,9; 39,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,97; 46,6</t>
+          <t>33,72; 46,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,94; 36,45</t>
+          <t>24,23; 35,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 31,51</t>
+          <t>20,22; 31,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,15; 35,28</t>
+          <t>23,64; 36,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,46; 48,17</t>
+          <t>36,3; 47,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 24,83</t>
+          <t>18,35; 25,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,9</t>
+          <t>16,23; 22,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 22,02</t>
+          <t>15,66; 22,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,14; 32,73</t>
+          <t>25,61; 33,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 32,85</t>
+          <t>24,83; 32,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 38,19</t>
+          <t>30,03; 37,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,94; 37,0</t>
+          <t>28,7; 36,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,44; 43,37</t>
+          <t>36,81; 43,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 27,82</t>
+          <t>22,65; 27,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,19; 29,26</t>
+          <t>23,81; 29,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,66</t>
+          <t>23,0; 28,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,06; 37,16</t>
+          <t>32,25; 37,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,93</t>
+          <t>13,5; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,44</t>
+          <t>17,93; 23,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 20,98</t>
+          <t>16,46; 21,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,54; 26,28</t>
+          <t>19,42; 26,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,42</t>
+          <t>24,0; 29,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,52</t>
+          <t>28,38; 34,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,5; 33,42</t>
+          <t>27,61; 33,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,65; 39,95</t>
+          <t>34,91; 40,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,09</t>
+          <t>19,44; 23,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,09; 28,26</t>
+          <t>24,15; 28,34</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 26,62</t>
+          <t>22,62; 26,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 32,48</t>
+          <t>27,71; 32,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,77</t>
+          <t>16,28; 22,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,12</t>
+          <t>10,99; 16,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 20,5</t>
+          <t>14,36; 20,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 27,81</t>
+          <t>21,29; 28,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 38,7</t>
+          <t>31,62; 38,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,21; 31,64</t>
+          <t>25,02; 31,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,63; 30,2</t>
+          <t>23,1; 30,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,95; 58,83</t>
+          <t>29,82; 59,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,75</t>
+          <t>24,94; 29,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 23,01</t>
+          <t>18,89; 23,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,83; 24,16</t>
+          <t>20,08; 24,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 47,61</t>
+          <t>26,7; 47,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,5</t>
+          <t>14,8; 19,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,5</t>
+          <t>18,64; 23,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,69; 20,85</t>
+          <t>15,53; 20,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,59; 31,37</t>
+          <t>25,74; 31,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,57; 30,03</t>
+          <t>24,64; 30,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,9; 34,72</t>
+          <t>28,87; 34,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 29,49</t>
+          <t>24,01; 29,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,08; 42,73</t>
+          <t>36,64; 42,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,55; 24,2</t>
+          <t>20,5; 24,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 28,7</t>
+          <t>24,86; 28,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,62; 24,64</t>
+          <t>20,75; 24,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 36,66</t>
+          <t>32,68; 36,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,73; 19,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,32</t>
+          <t>17,47; 20,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 20,0</t>
+          <t>17,26; 19,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,64; 28,23</t>
+          <t>24,6; 28,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,51; 30,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,79</t>
+          <t>29,87; 32,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,19; 30,24</t>
+          <t>27,29; 30,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,74; 44,88</t>
+          <t>36,74; 45,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,78; 24,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,34</t>
+          <t>24,16; 26,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,83</t>
+          <t>22,85; 24,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,7; 37,28</t>
+          <t>31,65; 36,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 33,97</t>
+          <t>17,64; 34,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 24,29</t>
+          <t>11,84; 25,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,17; 38,24</t>
+          <t>20,67; 38,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,93; 44,18</t>
+          <t>27,05; 43,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,89; 44,24</t>
+          <t>24,58; 44,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,9; 39,33</t>
+          <t>22,66; 39,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,23; 35,89</t>
+          <t>23,99; 35,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,22; 31,4</t>
+          <t>20,35; 31,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 36,14</t>
+          <t>23,76; 36,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 25,01</t>
+          <t>18,42; 25,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,54</t>
+          <t>15,88; 22,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 22,28</t>
+          <t>15,29; 22,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,83; 32,38</t>
+          <t>25,05; 32,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,03; 37,92</t>
+          <t>30,24; 38,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,7; 36,8</t>
+          <t>28,86; 36,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,65; 27,77</t>
+          <t>22,8; 27,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,81; 29,25</t>
+          <t>23,93; 29,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,41</t>
+          <t>23,43; 28,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,96</t>
+          <t>13,28; 17,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,44</t>
+          <t>18,16; 23,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 21,17</t>
+          <t>16,42; 21,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,0; 29,46</t>
+          <t>23,75; 29,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,38; 34,65</t>
+          <t>28,7; 34,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,61; 33,43</t>
+          <t>27,64; 33,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 23,11</t>
+          <t>19,32; 23,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,15; 28,34</t>
+          <t>24,13; 28,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,62; 26,48</t>
+          <t>22,54; 26,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 22,54</t>
+          <t>16,66; 22,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,0</t>
+          <t>10,88; 16,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 20,09</t>
+          <t>14,85; 20,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,62; 38,7</t>
+          <t>31,6; 38,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,02; 31,76</t>
+          <t>24,93; 31,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 30,01</t>
+          <t>23,13; 29,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 29,9</t>
+          <t>24,93; 29,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 23,36</t>
+          <t>18,9; 23,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 24,38</t>
+          <t>19,84; 24,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,48</t>
+          <t>14,8; 19,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,64; 23,94</t>
+          <t>18,54; 24,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,53; 20,63</t>
+          <t>15,58; 20,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,64; 30,3</t>
+          <t>24,35; 30,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,87; 34,76</t>
+          <t>28,73; 34,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 24,31</t>
+          <t>20,69; 24,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,86; 28,91</t>
+          <t>24,9; 29,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,75; 24,53</t>
+          <t>20,63; 24,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 19,49</t>
+          <t>16,8; 19,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 20,48</t>
+          <t>17,57; 20,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,85</t>
+          <t>17,18; 19,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,73</t>
+          <t>27,68; 30,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,87; 32,95</t>
+          <t>29,83; 32,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,29; 30,73</t>
+          <t>27,27; 30,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,86</t>
+          <t>22,73; 24,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,24</t>
+          <t>24,16; 26,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 24,91</t>
+          <t>22,8; 24,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,64; 34,26</t>
+          <t>17,06; 33,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 25,25</t>
+          <t>11,29; 24,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 38,35</t>
+          <t>20,61; 37,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,88; 53,47</t>
+          <t>34,37; 53,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,05; 43,04</t>
+          <t>27,14; 43,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 44,07</t>
+          <t>25,22; 43,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 39,94</t>
+          <t>20,95; 39,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,72; 46,83</t>
+          <t>32,97; 46,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 35,42</t>
+          <t>23,94; 36,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,35; 31,57</t>
+          <t>20,13; 31,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,76; 36,13</t>
+          <t>23,15; 35,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,3; 47,25</t>
+          <t>36,46; 48,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 25,22</t>
+          <t>18,26; 24,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 22,8</t>
+          <t>16,23; 22,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 22,1</t>
+          <t>15,45; 22,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,61; 33,29</t>
+          <t>25,14; 32,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 32,73</t>
+          <t>25,19; 32,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,24; 38,33</t>
+          <t>30,29; 38,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,86; 36,99</t>
+          <t>28,94; 37,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,81; 43,39</t>
+          <t>36,44; 43,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,68</t>
+          <t>22,82; 27,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,93; 29,25</t>
+          <t>24,19; 29,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,43; 28,54</t>
+          <t>23,3; 28,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 37,36</t>
+          <t>32,06; 37,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,84</t>
+          <t>13,31; 17,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 23,59</t>
+          <t>17,98; 23,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 21,38</t>
+          <t>16,27; 20,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,52</t>
+          <t>19,54; 26,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 29,62</t>
+          <t>23,41; 29,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,7; 34,62</t>
+          <t>28,43; 34,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,64; 33,44</t>
+          <t>27,5; 33,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,91; 40,07</t>
+          <t>34,65; 39,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 23,06</t>
+          <t>19,35; 23,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,13; 28,43</t>
+          <t>24,09; 28,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 26,57</t>
+          <t>22,76; 26,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,71; 32,53</t>
+          <t>27,54; 32,48</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,65</t>
+          <t>16,37; 22,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,88; 16,24</t>
+          <t>10,81; 16,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 20,28</t>
+          <t>14,64; 20,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,29; 28,24</t>
+          <t>21,27; 27,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,6; 38,49</t>
+          <t>31,03; 38,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 31,65</t>
+          <t>25,21; 31,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,13; 29,93</t>
+          <t>23,63; 30,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,82; 59,52</t>
+          <t>29,95; 58,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,95</t>
+          <t>24,83; 29,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 23,26</t>
+          <t>18,69; 23,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,84; 24,37</t>
+          <t>19,83; 24,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,7; 47,46</t>
+          <t>26,96; 47,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 19,67</t>
+          <t>14,67; 19,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 24,12</t>
+          <t>18,88; 24,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,73</t>
+          <t>15,69; 20,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 31,58</t>
+          <t>25,59; 31,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 30,11</t>
+          <t>24,57; 30,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,73; 34,35</t>
+          <t>28,9; 34,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,01; 29,56</t>
+          <t>23,97; 29,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36,64; 42,66</t>
+          <t>37,08; 42,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,38</t>
+          <t>20,55; 24,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,9; 29,07</t>
+          <t>24,8; 28,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,63; 24,51</t>
+          <t>20,62; 24,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,68; 36,48</t>
+          <t>32,5; 36,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,8; 19,53</t>
+          <t>16,88; 19,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,57; 20,36</t>
+          <t>17,52; 20,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,18; 19,93</t>
+          <t>17,39; 20,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,6; 28,14</t>
+          <t>24,64; 28,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,68; 30,65</t>
+          <t>27,78; 30,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,83; 32,94</t>
+          <t>29,68; 32,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,27; 30,57</t>
+          <t>27,19; 30,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,74; 45,56</t>
+          <t>36,74; 44,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,73; 24,82</t>
+          <t>22,66; 24,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 26,28</t>
+          <t>24,22; 26,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,8; 24,93</t>
+          <t>22,78; 24,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,65; 36,58</t>
+          <t>31,7; 37,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 33,03</t>
+          <t>19,0; 24,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,29; 24,66</t>
+          <t>15,93; 21,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 37,02</t>
+          <t>17,4; 23,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,37; 53,83</t>
+          <t>27,58; 34,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,14; 43,72</t>
+          <t>26,54; 33,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,22; 43,13</t>
+          <t>30,26; 37,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,95; 39,37</t>
+          <t>28,98; 36,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,97; 46,6</t>
+          <t>37,29; 43,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,94; 36,45</t>
+          <t>23,7; 28,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 31,51</t>
+          <t>24,04; 28,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,15; 35,28</t>
+          <t>24,06; 29,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,46; 48,17</t>
+          <t>33,36; 38,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>27,59%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 24,83</t>
+          <t>13,31; 17,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 22,9</t>
+          <t>17,98; 23,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 22,02</t>
+          <t>16,27; 20,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,14; 32,73</t>
+          <t>10,96; 25,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,19; 32,85</t>
+          <t>23,41; 29,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 38,19</t>
+          <t>28,43; 34,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,94; 37,0</t>
+          <t>27,5; 33,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,44; 43,37</t>
+          <t>35,21; 40,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 27,82</t>
+          <t>19,35; 23,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,19; 29,26</t>
+          <t>24,09; 28,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,66</t>
+          <t>22,76; 26,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,06; 37,16</t>
+          <t>18,64; 31,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>36,12%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,93</t>
+          <t>16,37; 22,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,44</t>
+          <t>10,81; 16,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 20,98</t>
+          <t>14,64; 20,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,54; 26,28</t>
+          <t>20,77; 27,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,42</t>
+          <t>31,03; 38,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,52</t>
+          <t>25,21; 31,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,5; 33,42</t>
+          <t>23,63; 30,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,65; 39,95</t>
+          <t>28,65; 70,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,09</t>
+          <t>24,83; 29,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,09; 28,26</t>
+          <t>18,69; 23,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,76; 26,62</t>
+          <t>19,83; 24,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 32,48</t>
+          <t>26,2; 57,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>33,65%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,77</t>
+          <t>14,67; 19,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,12</t>
+          <t>18,88; 24,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 20,5</t>
+          <t>15,69; 20,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 27,81</t>
+          <t>25,82; 31,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 38,7</t>
+          <t>24,57; 30,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,21; 31,64</t>
+          <t>28,9; 34,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,63; 30,2</t>
+          <t>23,97; 29,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,95; 58,83</t>
+          <t>29,99; 41,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,75</t>
+          <t>20,55; 24,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 23,01</t>
+          <t>24,8; 28,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,83; 24,16</t>
+          <t>20,62; 24,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 47,61</t>
+          <t>29,65; 35,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>32,76%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,5</t>
+          <t>16,88; 19,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,5</t>
+          <t>17,52; 20,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,69; 20,85</t>
+          <t>17,39; 20,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,59; 31,37</t>
+          <t>19,67; 27,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,57; 30,03</t>
+          <t>27,78; 30,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,9; 34,72</t>
+          <t>29,68; 32,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 29,49</t>
+          <t>27,19; 30,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,08; 42,73</t>
+          <t>35,85; 50,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,55; 24,2</t>
+          <t>22,66; 24,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 28,7</t>
+          <t>24,22; 26,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,62; 24,64</t>
+          <t>22,78; 24,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,5; 36,66</t>
+          <t>29,68; 39,22</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,18%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,56%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>26,52%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>31,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>28,81%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>39,1%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23,77%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>25,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>23,8%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>33,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>16,88; 19,53</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,52; 20,32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,39; 20,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>24,64; 28,23</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>27,78; 30,92</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>29,68; 32,79</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>27,19; 30,24</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>36,74; 44,88</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>22,66; 24,77</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>24,22; 26,34</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>22,78; 24,83</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>31,7; 37,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,0; 24,97</t>
+          <t>19,06; 25,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,93; 21,82</t>
+          <t>16,02; 22,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,72</t>
+          <t>17,65; 23,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,58; 34,55</t>
+          <t>27,23; 34,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,54; 33,38</t>
+          <t>25,95; 32,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,26; 37,89</t>
+          <t>30,33; 37,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,17</t>
+          <t>28,45; 36,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,29; 43,05</t>
+          <t>37,37; 43,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,7; 28,45</t>
+          <t>23,8; 28,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,04; 28,76</t>
+          <t>23,89; 29,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,06; 29,01</t>
+          <t>24,27; 29,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,36; 38,28</t>
+          <t>33,2; 38,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 17,93</t>
+          <t>13,34; 18,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,44</t>
+          <t>18,15; 23,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 20,98</t>
+          <t>16,1; 21,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 25,26</t>
+          <t>10,53; 25,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,42</t>
+          <t>23,97; 29,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,52</t>
+          <t>28,62; 34,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 33,42</t>
+          <t>27,3; 33,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,21; 40,48</t>
+          <t>35,13; 40,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,09</t>
+          <t>19,31; 23,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,09; 28,26</t>
+          <t>24,06; 28,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 26,62</t>
+          <t>22,46; 26,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 31,8</t>
+          <t>18,8; 31,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 22,77</t>
+          <t>16,34; 22,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,12</t>
+          <t>10,89; 16,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 20,5</t>
+          <t>14,69; 20,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,77; 27,37</t>
+          <t>20,82; 27,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,03; 38,7</t>
+          <t>31,64; 39,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,21; 31,64</t>
+          <t>25,05; 32,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,63; 30,2</t>
+          <t>23,6; 30,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,65; 70,45</t>
+          <t>28,99; 70,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 29,75</t>
+          <t>24,9; 29,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,69; 23,01</t>
+          <t>18,75; 23,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 24,16</t>
+          <t>19,94; 24,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 57,69</t>
+          <t>26,22; 57,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,5</t>
+          <t>14,86; 19,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,5</t>
+          <t>18,3; 23,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 20,85</t>
+          <t>15,57; 20,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 31,76</t>
+          <t>25,66; 31,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,57; 30,03</t>
+          <t>24,63; 30,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,9; 34,72</t>
+          <t>28,51; 34,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,97; 29,49</t>
+          <t>23,74; 29,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 41,56</t>
+          <t>30,32; 41,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 24,2</t>
+          <t>20,42; 24,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,8; 28,7</t>
+          <t>24,69; 28,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 24,64</t>
+          <t>20,73; 24,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 35,74</t>
+          <t>29,64; 35,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 19,53</t>
+          <t>16,88; 19,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,52; 20,32</t>
+          <t>17,5; 20,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,39; 20,0</t>
+          <t>17,35; 19,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,67; 27,49</t>
+          <t>19,57; 27,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,78; 30,92</t>
+          <t>27,56; 30,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,79</t>
+          <t>29,71; 33,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,19; 30,24</t>
+          <t>27,35; 30,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,85; 50,76</t>
+          <t>35,8; 50,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,66; 24,77</t>
+          <t>22,75; 24,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,22; 26,34</t>
+          <t>24,18; 26,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,78; 24,83</t>
+          <t>22,75; 24,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,68; 39,22</t>
+          <t>29,64; 40,15</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>153550</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>131752</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>137040</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>195904</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>205431</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>236634</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>216432</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>271221</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>358981</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>368386</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>353472</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>467125</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>132259; 174879</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>111763; 154888</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>118096; 157252</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>172814; 218650</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>178648; 226416</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>210833; 263570</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>189484; 241914</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>252553; 291085</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>328974; 391794</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>332716; 406746</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>324085; 387913</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>435068; 498744</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>149995</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>210071</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>189879</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>229403</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>258429</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>324129</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>314999</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>362999</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>408424</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>534200</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>504879</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>592402</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>128280; 173229</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>183928; 238594</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>163537; 215222</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125319; 298589</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>232085; 288955</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>294854; 356242</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>283918; 346725</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>336033; 386402</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>372743; 446820</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>491769; 574558</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>461731; 545148</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>403580; 686973</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>131057</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>100680</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>130331</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>168779</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>239818</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>219953</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>206681</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>422594</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>370875</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>320633</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>337012</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>591373</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>110889; 154007</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82139; 121148</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>110581; 152188</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>146740; 192914</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>216379; 268190</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>194645; 249864</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>183748; 234695</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>270390; 657662</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>339177; 404517</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>287161; 354775</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>305366; 372734</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>429353; 941312</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>161082</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>168076</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>265719</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>283028</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>332951</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>276661</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>413918</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>444109</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>533874</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>444737</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>679637</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>139988; 185669</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>172717; 226273</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>145050; 192844</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>237825; 294390</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>255851; 311568</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>299885; 364207</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>246331; 310076</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>331455; 453129</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>404545; 480945</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>492796; 574241</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>408323; 482284</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>598701; 726311</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3348</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>595684</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>643427</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>625326</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>859805</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>986706</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1113667</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1014774</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1470732</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1582390</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1757093</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1640099</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2330537</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>552983; 642865</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>596618; 691523</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>584514; 670850</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>676549; 949686</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>931344; 1036340</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1056150; 1177238</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>963266; 1073617</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1309506; 1857299</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1514374; 1655188</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1684174; 1834398</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1567702; 1716472</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2109118; 2856413</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>